--- a/design/请求接口.xlsx
+++ b/design/请求接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8445" tabRatio="500"/>
+    <workbookView windowWidth="19425" windowHeight="5685" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>控制器</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>{username,password}</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
   <si>
     <t>获取所有认证角色</t>
@@ -145,11 +148,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -158,19 +161,32 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +214,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -206,14 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -231,21 +254,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +267,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -275,15 +290,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,7 +308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,21 +316,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,31 +338,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E3EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F1F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,49 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,104 +546,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -516,111 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,11 +582,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,166 +656,196 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1144,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5047619047619" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
@@ -1155,7 +1173,7 @@
     <col min="2" max="2" width="20.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,216 +1200,227 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="12.75" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="12.75" spans="1:7">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" ht="25.5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" ht="25.5" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" ht="25.5" spans="1:7">
       <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
-    <row r="8" ht="12.75" spans="1:7">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
-    <row r="9" ht="24.75" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+    <row r="10" ht="24.75" spans="1:7">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
-    <row r="10" ht="12.75" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
-    <row r="11" ht="50.25" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" ht="50.25" spans="1:7">
+      <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
-    <row r="12" ht="12.75" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
-    <row r="13" ht="37.5" spans="1:7">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="14" ht="37.5" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
-    <row r="14" ht="38.25" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
+    <row r="15" ht="38.25" spans="1:7">
+      <c r="A15" s="15"/>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
